--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F155DF12-4E98-4B3C-937E-3449812D33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1401E-D096-41CF-BF6B-E45D0A18EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54465" yWindow="10530" windowWidth="26100" windowHeight="10455" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
+    <workbookView xWindow="59145" yWindow="780" windowWidth="21255" windowHeight="8880" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
-    <t>Magasin CL Kstore ClientIT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>https://iamuaprod.kiabi.fr/idmdash</t>
   </si>
   <si>
-    <t>Magasin CLO ClientIT</t>
-  </si>
-  <si>
     <t>3xONEY</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>-Technique-</t>
   </si>
   <si>
-    <t>Magasin FullWebIT</t>
-  </si>
-  <si>
     <t>-Kiabi-</t>
   </si>
   <si>
@@ -152,12 +143,6 @@
     <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
   </si>
   <si>
-    <t>Magasin LSA ClientIT</t>
-  </si>
-  <si>
-    <t>Magasin POD ClientIT</t>
-  </si>
-  <si>
     <t>-BackOffice-</t>
   </si>
   <si>
@@ -191,13 +176,28 @@
     <t>https://bo.kiabi.fr:8443/BOE/BI</t>
   </si>
   <si>
-    <t>Magasin SCO ClientIT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Encaissement-</t>
   </si>
   <si>
-    <t>Magasin Citrix ClientIT</t>
+    <t>Magasin CL Kstore ClientPT</t>
+  </si>
+  <si>
+    <t>Magasin CLO ClientPT</t>
+  </si>
+  <si>
+    <t>Magasin FullWebPT</t>
+  </si>
+  <si>
+    <t>Magasin LSA ClientPT</t>
+  </si>
+  <si>
+    <t>Magasin POD ClientPT</t>
+  </si>
+  <si>
+    <t>Magasin SCO ClientPT</t>
+  </si>
+  <si>
+    <t>Magasin CPTrix ClientPT</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626BC7D-E6BE-4D62-AD67-69E799B6871A}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A44" sqref="A1:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,483 +634,483 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,13 +1118,13 @@
         <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,13 +1132,13 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,13 +1146,13 @@
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,13 +1160,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">

--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1401E-D096-41CF-BF6B-E45D0A18EB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B4492-190C-4803-9FF6-4235C8A31893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59145" yWindow="780" windowWidth="21255" windowHeight="8880" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
@@ -197,7 +197,7 @@
     <t>Magasin SCO ClientPT</t>
   </si>
   <si>
-    <t>Magasin CPTrix ClientPT</t>
+    <t>Magasin Citrix ClientPT</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A44" sqref="A1:A44"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B4492-190C-4803-9FF6-4235C8A31893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D18F5-5884-4D36-8C77-9C96D9D3D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59145" yWindow="780" windowWidth="21255" windowHeight="8880" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Magasin Citrix ClientPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -BackStore-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Technique-</t>
   </si>
 </sst>
 </file>
@@ -620,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626BC7D-E6BE-4D62-AD67-69E799B6871A}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,34 +1065,37 @@
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">

--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D18F5-5884-4D36-8C77-9C96D9D3D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04023F10-D8B2-4FE2-B601-CA588AACF7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59145" yWindow="780" windowWidth="21255" windowHeight="8880" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
+    <workbookView xWindow="38685" yWindow="3405" windowWidth="21255" windowHeight="17325" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
   <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
@@ -210,25 +210,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -269,24 +257,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626BC7D-E6BE-4D62-AD67-69E799B6871A}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,10 +715,11 @@
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -789,6 +769,7 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -800,6 +781,7 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -841,10 +823,11 @@
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -852,10 +835,11 @@
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -863,7 +847,7 @@
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -877,10 +861,11 @@
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -894,6 +879,7 @@
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -941,7 +927,7 @@
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -949,10 +935,11 @@
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -960,10 +947,11 @@
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -971,10 +959,11 @@
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -982,10 +971,11 @@
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -993,8 +983,11 @@
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -1010,6 +1003,7 @@
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1029,10 +1023,11 @@
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1054,10 +1049,11 @@
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1077,7 +1073,7 @@
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1115,10 +1111,11 @@
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04023F10-D8B2-4FE2-B601-CA588AACF7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B214298-5BC2-49D1-98AC-02FE160BF8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38685" yWindow="3405" windowWidth="21255" windowHeight="17325" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
+    <workbookView xWindow="29760" yWindow="1035" windowWidth="21255" windowHeight="17325" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -Technique-</t>
+  </si>
+  <si>
+    <t>Rien</t>
+  </si>
+  <si>
+    <t>ignore</t>
   </si>
 </sst>
 </file>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C626BC7D-E6BE-4D62-AD67-69E799B6871A}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +623,7 @@
     <col min="4" max="4" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -631,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -645,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -659,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -687,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -699,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -711,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -723,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -735,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -747,7 +753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -759,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -769,9 +775,14 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -781,9 +792,14 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -797,7 +813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -809,7 +825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -819,7 +835,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -831,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -843,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -857,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -869,7 +885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -881,7 +897,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -895,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -907,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -919,7 +935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -931,7 +947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -943,7 +959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -955,7 +971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -967,7 +983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -979,7 +995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -992,8 +1008,11 @@
       <c r="D30" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -1003,9 +1022,14 @@
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1019,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1045,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -1067,9 +1091,14 @@
       <c r="C36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -1079,21 +1108,31 @@
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -1107,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1119,7 +1158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -1133,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1147,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
@@ -1161,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -1175,16 +1214,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
   </sheetData>

--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B214298-5BC2-49D1-98AC-02FE160BF8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63641513-48E1-42CC-B55A-3D2144F503FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="1035" windowWidth="21255" windowHeight="17325" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
+    <workbookView xWindow="57930" yWindow="3255" windowWidth="21255" windowHeight="17325" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
@@ -612,7 +612,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E38"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +895,12 @@
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">

--- a/liensMagasinPT.xlsx
+++ b/liensMagasinPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63641513-48E1-42CC-B55A-3D2144F503FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6116E-73FE-462F-B56B-04CC628BFB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57930" yWindow="3255" windowWidth="21255" windowHeight="17325" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{EA094DDF-9477-48CE-A6CD-1A42AFEFF7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
@@ -65,15 +65,6 @@
     <t>https://vipiisxen02.kiabi.fr/Citrix/KiabiDesktopsWeb/</t>
   </si>
   <si>
-    <t>Liens Ressources Humaines :</t>
-  </si>
-  <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
     <t>3xONEY</t>
   </si>
   <si>
@@ -126,21 +117,6 @@
   </si>
   <si>
     <t>https://wfr113.pc.kiabi.fr/RDWeb/Pages/en-US/login.aspx</t>
-  </si>
-  <si>
-    <t>Yoobic</t>
-  </si>
-  <si>
-    <t>https://app-web.yoobic.com</t>
-  </si>
-  <si>
-    <t>Risorse Umane :</t>
-  </si>
-  <si>
-    <t>SMARTRH</t>
-  </si>
-  <si>
-    <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
   </si>
   <si>
     <t>-BackOffice-</t>
@@ -612,7 +588,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -639,7 +615,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -653,7 +629,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -666,48 +642,40 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
@@ -719,7 +687,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
@@ -731,113 +699,113 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
@@ -848,77 +816,57 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
@@ -930,245 +878,217 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1</v>
@@ -1179,7 +1099,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>3</v>
@@ -1193,7 +1113,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -1206,18 +1126,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
